--- a/pier/piers.xlsx
+++ b/pier/piers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\simutrans-pak128.japan-ex-addons\pier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5059AA00-3689-4A5B-A48F-DD46668A5DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE34920-CB75-4E94-99FC-6C9E28D003F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="7785" windowWidth="45765" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>自動設置グループ 32まで</t>
   </si>
@@ -305,7 +305,60 @@
     <t>0xFFFF</t>
   </si>
   <si>
+    <t>iss_pier1_deck</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コンクリート橋脚1 高架</t>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0x013B013B</t>
+  </si>
+  <si>
     <t>0x00000000</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0x00000001</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>iss_pier1_base</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コンクリート橋脚1 高架サポート</t>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Concrete pier 1 Deck support</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Concrete pier 1 Deck</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0xC40000FE</t>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0xFFFFFFFF</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0xC40000FC</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1343,20 +1396,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="5" width="13.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" style="42" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11" style="42" bestFit="1" customWidth="1"/>
@@ -1540,9 +1593,8 @@
       <c r="N4" t="s">
         <v>15</v>
       </c>
-      <c r="O4" t="str">
-        <f>"0x"&amp;REPT(0,8-LEN(DEC2HEX(_xlfn.BITLSHIFT(1,LEFT(J4)))))&amp;DEC2HEX(_xlfn.BITLSHIFT(1,LEFT(J4)))</f>
-        <v>0x00000001</v>
+      <c r="O4" t="s">
+        <v>88</v>
       </c>
       <c r="P4" t="str">
         <f>IF(K4="通常","0x00","0x80")</f>
@@ -1561,9 +1613,147 @@
         <v>77</v>
       </c>
       <c r="U4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="19.5" customHeight="1">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="1">
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1990</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>120</v>
+      </c>
+      <c r="I5" s="1">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" t="str">
+        <f>IF(K5="通常","0x00","0x80")</f>
+        <v>0x00</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="19.5" customHeight="1">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1990</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>120</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="str">
+        <f>IF(K6="通常","0x00","0x80")</f>
+        <v>0x00</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1577,13 +1767,13 @@
           <x14:formula1>
             <xm:f>lists!$C$2:$C$17</xm:f>
           </x14:formula1>
-          <xm:sqref>L4:N4</xm:sqref>
+          <xm:sqref>L4:N6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C542210-EB8F-49C2-9610-E390318EBFD4}">
           <x14:formula1>
             <xm:f>lists!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>J4</xm:sqref>
+          <xm:sqref>J4:J6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1599,7 +1789,7 @@
   <dimension ref="A1:AZ26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
@@ -1714,11 +1904,11 @@
       </c>
       <c r="B2" s="1">
         <f>G8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <f>H9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <f>H12</f>
@@ -1734,7 +1924,7 @@
       </c>
       <c r="G2" s="1">
         <f>F7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <f>G15</f>
@@ -1810,11 +2000,11 @@
       </c>
       <c r="Z2" s="1">
         <f>V8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1">
         <f>U9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="1">
         <f>R9</f>
@@ -1830,11 +2020,11 @@
       </c>
       <c r="AE2" s="1">
         <f>W7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1">
         <f>N8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="1">
         <f>N15</f>
@@ -1847,11 +2037,11 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:AG3" si="0">_xlfn.BITLSHIFT(B2,B1)</f>
-        <v>0</v>
+        <v>2147483648</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1073741824</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
@@ -1867,7 +2057,7 @@
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67108864</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
@@ -1943,11 +2133,11 @@
       </c>
       <c r="Z3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AB3" s="1">
         <f t="shared" si="0"/>
@@ -1963,11 +2153,11 @@
       </c>
       <c r="AE3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF3" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="1">
         <f t="shared" si="0"/>
@@ -1980,7 +2170,7 @@
       </c>
       <c r="B4" s="2" t="str">
         <f>"0x"&amp;REPT("0",8-LEN(DEC2HEX(SUM(B3:AG3))))&amp;DEC2HEX(SUM(B3:AG3))</f>
-        <v>0x0000003A</v>
+        <v>0xC40000FC</v>
       </c>
     </row>
     <row r="5" spans="1:52" ht="18.75" customHeight="1">
@@ -2029,7 +2219,7 @@
     <row r="7" spans="1:52" ht="18.75" customHeight="1">
       <c r="E7" s="5"/>
       <c r="F7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="54"/>
       <c r="J7" s="47"/>
@@ -2039,7 +2229,7 @@
       <c r="T7" s="47"/>
       <c r="V7" s="8"/>
       <c r="W7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="10"/>
       <c r="AI7" s="11"/>
@@ -2055,7 +2245,7 @@
     <row r="8" spans="1:52" ht="18.75" customHeight="1">
       <c r="E8" s="5"/>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="61"/>
       <c r="I8" s="5"/>
@@ -2063,7 +2253,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
@@ -2072,7 +2262,7 @@
       <c r="S8" s="5"/>
       <c r="U8" s="55"/>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="5"/>
       <c r="AH8" s="10"/>
@@ -2094,7 +2284,7 @@
       <c r="E9" s="5"/>
       <c r="G9" s="61"/>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="5"/>
       <c r="K9" s="1">
@@ -2110,7 +2300,7 @@
       </c>
       <c r="S9" s="5"/>
       <c r="U9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="55"/>
       <c r="W9" s="5"/>
@@ -2542,7 +2732,9 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>

--- a/pier/piers.xlsx
+++ b/pier/piers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\simutrans-pak128.japan-ex-addons\pier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE34920-CB75-4E94-99FC-6C9E28D003F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFF22EC-1C8E-4CBB-90B4-92263AB3F9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="7785" windowWidth="45765" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="615" windowWidth="45765" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
   <si>
     <t>自動設置グループ 32まで</t>
   </si>
@@ -299,9 +299,6 @@
     <t>128na_modified_by_Physka</t>
   </si>
   <si>
-    <t>0x0000003A</t>
-  </si>
-  <si>
     <t>0xFFFF</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>0x013B013B</t>
-  </si>
-  <si>
     <t>0x00000000</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -346,9 +340,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>0xC40000FE</t>
-  </si>
-  <si>
     <t>0x01</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -357,7 +348,71 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>0xC40000FC</t>
+    <t>0xC4C4C4C4</t>
+  </si>
+  <si>
+    <t>0x003A0000</t>
+  </si>
+  <si>
+    <t>0x00FCC400</t>
+  </si>
+  <si>
+    <t>0x00FEC400</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>iss_pier1_deck_diag</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コンクリート橋脚1 高架 対角</t>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイカク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Concrete pier 1 Deck [Diagonal]</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0xC4C400C4</t>
+  </si>
+  <si>
+    <t>0xFFC501FF</t>
+  </si>
+  <si>
+    <t>iss_pier1_base_diag</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コンクリート橋脚1 高架サポート [対角]</t>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイカク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0x01C50101</t>
+  </si>
+  <si>
+    <t>0x01C10101</t>
+  </si>
+  <si>
+    <t>コンクリート橋脚1 対角</t>
+    <rPh sb="10" eb="12">
+      <t>タイカク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>iss_pier1_diag</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1396,13 +1451,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1588,32 +1643,32 @@
         <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P4" t="str">
         <f>IF(K4="通常","0x00","0x80")</f>
         <v>0x00</v>
       </c>
       <c r="Q4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" t="s">
         <v>76</v>
       </c>
-      <c r="R4" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" t="s">
-        <v>77</v>
-      </c>
       <c r="U4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V4" s="1">
         <v>0</v>
@@ -1624,13 +1679,13 @@
         <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>75</v>
@@ -1654,35 +1709,35 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P5" t="str">
         <f>IF(K5="通常","0x00","0x80")</f>
         <v>0x00</v>
       </c>
       <c r="Q5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="R5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="S5" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="T5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
@@ -1693,13 +1748,13 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
         <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>75</v>
@@ -1723,37 +1778,244 @@
         <v>4</v>
       </c>
       <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>15</v>
-      </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P6" t="str">
         <f>IF(K6="通常","0x00","0x80")</f>
         <v>0x00</v>
       </c>
       <c r="Q6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" t="s">
         <v>76</v>
       </c>
-      <c r="R6" t="s">
-        <v>87</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="19.5" customHeight="1">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1990</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>120</v>
+      </c>
+      <c r="I7" s="1">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="str">
+        <f>IF(K7="通常","0x00","0x80")</f>
+        <v>0x00</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" t="s">
+        <v>95</v>
+      </c>
+      <c r="S7" t="s">
+        <v>94</v>
+      </c>
+      <c r="T7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="19.5" customHeight="1">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1990</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>120</v>
+      </c>
+      <c r="I8" s="1">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" t="str">
+        <f>IF(K8="通常","0x00","0x80")</f>
+        <v>0x00</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" t="s">
         <v>90</v>
       </c>
-      <c r="T6" t="s">
-        <v>77</v>
-      </c>
-      <c r="U6" t="s">
-        <v>81</v>
-      </c>
-      <c r="V6" s="1">
+      <c r="S8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" t="s">
+        <v>79</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="19.5" customHeight="1">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1990</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>120</v>
+      </c>
+      <c r="I9" s="1">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="str">
+        <f>IF(K9="通常","0x00","0x80")</f>
+        <v>0x00</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" t="s">
+        <v>79</v>
+      </c>
+      <c r="V9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1767,13 +2029,13 @@
           <x14:formula1>
             <xm:f>lists!$C$2:$C$17</xm:f>
           </x14:formula1>
-          <xm:sqref>L4:N6</xm:sqref>
+          <xm:sqref>L4:N9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C542210-EB8F-49C2-9610-E390318EBFD4}">
           <x14:formula1>
             <xm:f>lists!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J6</xm:sqref>
+          <xm:sqref>J4:J9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1789,7 +2051,7 @@
   <dimension ref="A1:AZ26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
@@ -1904,11 +2166,11 @@
       </c>
       <c r="B2" s="1">
         <f>G8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <f>H9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <f>H12</f>
@@ -1924,7 +2186,7 @@
       </c>
       <c r="G2" s="1">
         <f>F7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <f>G15</f>
@@ -1932,15 +2194,15 @@
       </c>
       <c r="I2" s="1">
         <f>N15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <f>G23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
         <f>H22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1">
         <f>K22</f>
@@ -1956,7 +2218,7 @@
       </c>
       <c r="O2" s="1">
         <f>F24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1">
         <f>N23</f>
@@ -1964,7 +2226,7 @@
       </c>
       <c r="Q2" s="1">
         <f>N15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
         <f>V23</f>
@@ -1996,31 +2258,31 @@
       </c>
       <c r="Y2" s="1">
         <f>N15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1">
         <f>V8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
         <f>U9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="1">
         <f>R9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="1">
         <f>K9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="1">
         <f>N9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <f>W7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="1">
         <f>N8</f>
@@ -2028,7 +2290,7 @@
       </c>
       <c r="AG2" s="1">
         <f>N15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:52" ht="18.75" customHeight="1">
@@ -2037,11 +2299,11 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:AG3" si="0">_xlfn.BITLSHIFT(B2,B1)</f>
-        <v>2147483648</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
-        <v>1073741824</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
@@ -2057,7 +2319,7 @@
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>67108864</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
@@ -2065,15 +2327,15 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16777216</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8388608</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4194304</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="0"/>
@@ -2089,7 +2351,7 @@
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>262144</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
@@ -2097,7 +2359,7 @@
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65536</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="0"/>
@@ -2129,31 +2391,31 @@
       </c>
       <c r="Y3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z3" s="1">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="1">
         <f t="shared" si="0"/>
@@ -2161,7 +2423,7 @@
       </c>
       <c r="AG3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:52" ht="18.75" customHeight="1">
@@ -2170,7 +2432,7 @@
       </c>
       <c r="B4" s="2" t="str">
         <f>"0x"&amp;REPT("0",8-LEN(DEC2HEX(SUM(B3:AG3))))&amp;DEC2HEX(SUM(B3:AG3))</f>
-        <v>0xC40000FC</v>
+        <v>0x01C50101</v>
       </c>
     </row>
     <row r="5" spans="1:52" ht="18.75" customHeight="1">
@@ -2219,7 +2481,7 @@
     <row r="7" spans="1:52" ht="18.75" customHeight="1">
       <c r="E7" s="5"/>
       <c r="F7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="54"/>
       <c r="J7" s="47"/>
@@ -2229,7 +2491,7 @@
       <c r="T7" s="47"/>
       <c r="V7" s="8"/>
       <c r="W7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="10"/>
       <c r="AI7" s="11"/>
@@ -2245,7 +2507,7 @@
     <row r="8" spans="1:52" ht="18.75" customHeight="1">
       <c r="E8" s="5"/>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="61"/>
       <c r="I8" s="5"/>
@@ -2262,7 +2524,7 @@
       <c r="S8" s="5"/>
       <c r="U8" s="55"/>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="5"/>
       <c r="AH8" s="10"/>
@@ -2284,23 +2546,23 @@
       <c r="E9" s="5"/>
       <c r="G9" s="61"/>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5"/>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="49"/>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="52"/>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="5"/>
       <c r="U9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="55"/>
       <c r="W9" s="5"/>
@@ -2437,7 +2699,7 @@
       </c>
       <c r="I15" s="5"/>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="5"/>
       <c r="U15" s="36">
@@ -2602,7 +2864,7 @@
       <c r="E22" s="5"/>
       <c r="G22" s="55"/>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="5"/>
       <c r="K22" s="1">
@@ -2642,7 +2904,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="29"/>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="55"/>
       <c r="I23" s="5"/>
@@ -2672,7 +2934,7 @@
     <row r="24" spans="5:52" ht="18.75" customHeight="1">
       <c r="E24" s="5"/>
       <c r="F24" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>

--- a/pier/piers.xlsx
+++ b/pier/piers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\simutrans-pak128.japan-ex-addons\pier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFF22EC-1C8E-4CBB-90B4-92263AB3F9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2DE067-A41E-4083-9C7C-027AD168FB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1110" yWindow="615" windowWidth="45765" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="111">
   <si>
     <t>自動設置グループ 32まで</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>mask:</t>
-  </si>
-  <si>
-    <t>bit mask</t>
   </si>
   <si>
     <t>N</t>
@@ -413,6 +410,48 @@
   </si>
   <si>
     <t>iss_pier1_diag</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コンクリート橋脚2 橋脚</t>
+    <rPh sb="10" eb="12">
+      <t>キョウキャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Concrete pier 2 Pillar</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>bit mask1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>bit mask2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0x3C003C00</t>
+  </si>
+  <si>
+    <t>base_mask_2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>middle_mask_2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>support_mask_2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>iss_pier2_pillar</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0x03</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -460,15 +499,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -693,19 +738,6 @@
       <diagonal/>
     </border>
     <border diagonalDown="1">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
       <left/>
       <right style="dotted">
         <color rgb="FF000000"/>
@@ -766,19 +798,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal style="thin">
         <color indexed="64"/>
@@ -793,19 +812,6 @@
         <color indexed="64"/>
       </diagonal>
     </border>
-    <border diagonalDown="1">
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border diagonalUp="1">
       <left/>
       <right/>
@@ -859,19 +865,6 @@
         <color indexed="64"/>
       </diagonal>
     </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border diagonalDown="1">
       <left style="dotted">
         <color rgb="FF000000"/>
@@ -938,37 +931,257 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -987,18 +1200,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1011,12 +1212,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1026,38 +1221,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1080,72 +1254,158 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1451,13 +1711,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1466,160 +1726,175 @@
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" customWidth="1"/>
+    <col min="23" max="24" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1">
+    <row r="1" spans="1:25" ht="18.75" customHeight="1">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="G1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="I1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
+        <v>108</v>
+      </c>
+      <c r="W1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="42" t="s">
+    </row>
+    <row r="2" spans="1:25" ht="18.75" customHeight="1">
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="18.75" customHeight="1">
-      <c r="B2" t="s">
+      <c r="C2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="F2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="G2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="J2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>62</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>63</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>64</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:25" ht="19.5" customHeight="1">
+      <c r="A3" s="25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="19.5" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="B3" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="C3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="D3" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="E3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="F3" s="26">
+        <v>4</v>
+      </c>
+      <c r="G3" s="26">
+        <v>120</v>
+      </c>
+      <c r="H3" s="27">
+        <v>11</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+    </row>
+    <row r="4" spans="1:25" ht="19.5" customHeight="1">
+      <c r="A4" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="45">
-        <v>4</v>
-      </c>
-      <c r="G3" s="45">
-        <v>120</v>
-      </c>
-      <c r="H3" s="46">
-        <v>11</v>
-      </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="Q3" s="44"/>
-    </row>
-    <row r="4" spans="1:22" ht="19.5" customHeight="1">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
       </c>
       <c r="F4" s="1">
         <v>1990</v>
@@ -1649,46 +1924,55 @@
         <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P4" t="str">
         <f>IF(K4="通常","0x00","0x80")</f>
         <v>0x00</v>
       </c>
       <c r="Q4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s">
-        <v>79</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="19.5" customHeight="1">
+        <v>87</v>
+      </c>
+      <c r="V4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="19.5" customHeight="1">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
         <v>74</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
       </c>
       <c r="F5" s="1">
         <v>1990</v>
@@ -1718,46 +2002,55 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P5" t="str">
         <f>IF(K5="通常","0x00","0x80")</f>
         <v>0x00</v>
       </c>
       <c r="Q5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R5" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T5" t="s">
+        <v>78</v>
+      </c>
+      <c r="U5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="19.5" customHeight="1">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="U5" t="s">
-        <v>79</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="19.5" customHeight="1">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="1">
         <v>1990</v>
@@ -1787,46 +2080,55 @@
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P6" t="str">
         <f>IF(K6="通常","0x00","0x80")</f>
         <v>0x00</v>
       </c>
       <c r="Q6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" t="s">
         <v>86</v>
       </c>
-      <c r="S6" t="s">
-        <v>87</v>
-      </c>
-      <c r="T6" t="s">
-        <v>76</v>
-      </c>
-      <c r="U6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="19.5" customHeight="1">
+      <c r="V6" t="s">
+        <v>78</v>
+      </c>
+      <c r="W6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="19.5" customHeight="1">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>92</v>
       </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="1">
         <v>1990</v>
@@ -1856,46 +2158,55 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P7" t="str">
         <f>IF(K7="通常","0x00","0x80")</f>
         <v>0x00</v>
       </c>
       <c r="Q7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s">
         <v>94</v>
       </c>
       <c r="T7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V7" t="s">
+        <v>78</v>
+      </c>
+      <c r="W7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="19.5" customHeight="1">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
         <v>80</v>
       </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="19.5" customHeight="1">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>81</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>82</v>
       </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1">
         <v>1990</v>
@@ -1925,46 +2236,55 @@
         <v>15</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P8" t="str">
         <f>IF(K8="通常","0x00","0x80")</f>
         <v>0x00</v>
       </c>
       <c r="Q8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R8" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s">
         <v>89</v>
       </c>
       <c r="T8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s">
-        <v>79</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="19.5" customHeight="1">
+        <v>88</v>
+      </c>
+      <c r="V8" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="19.5" customHeight="1">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1">
         <v>1990</v>
@@ -1994,28 +2314,115 @@
         <v>15</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P9" t="str">
         <f>IF(K9="通常","0x00","0x80")</f>
         <v>0x00</v>
       </c>
       <c r="Q9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R9" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s">
-        <v>79</v>
-      </c>
-      <c r="V9" s="1">
+        <v>97</v>
+      </c>
+      <c r="V9" t="s">
+        <v>78</v>
+      </c>
+      <c r="W9" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1990</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>120</v>
+      </c>
+      <c r="I10" s="1">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="str">
+        <f>IF(K10="通常","0x00","0x80")</f>
+        <v>0x00</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" t="s">
+        <v>105</v>
+      </c>
+      <c r="S10" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" t="s">
+        <v>105</v>
+      </c>
+      <c r="U10" t="s">
+        <v>78</v>
+      </c>
+      <c r="V10" t="s">
+        <v>105</v>
+      </c>
+      <c r="W10" t="s">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2029,13 +2436,13 @@
           <x14:formula1>
             <xm:f>lists!$C$2:$C$17</xm:f>
           </x14:formula1>
-          <xm:sqref>L4:N9</xm:sqref>
+          <xm:sqref>L4:N10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C542210-EB8F-49C2-9610-E390318EBFD4}">
           <x14:formula1>
             <xm:f>lists!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J9</xm:sqref>
+          <xm:sqref>J4:J10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2048,18 +2455,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ26"/>
+  <dimension ref="A1:BN35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="33" width="3.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="18.75" customHeight="1">
+    <row r="1" spans="1:66" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2159,141 +2567,365 @@
       <c r="AG1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:52" ht="18.75" customHeight="1">
+      <c r="AI1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>15</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>14</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>13</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>12</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>11</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>10</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>9</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>8</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>7</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>6</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" ht="18.75" customHeight="1">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="1">
-        <f>G8</f>
+        <f>I12</f>
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <f>H9</f>
+        <f>J13</f>
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <f>H12</f>
+        <f>J16</f>
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <f>H19</f>
+        <f>J23</f>
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <f>H15</f>
+        <f>J19</f>
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f>F7</f>
+        <f>H11</f>
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <f>G15</f>
+        <f>I19</f>
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <f>N15</f>
+        <f>P19</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f>I27</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <f>J26</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>M26</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <f>T26</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <f>P26</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f>H28</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <f>P27</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>P19</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>X27</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <f>W26</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <f>W23</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>W16</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <f>W19</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <f>Y28</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <f>X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>P19</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>X12</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <f>W13</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <f>T13</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <f>M13</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <f>P13</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <f>Y11</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <f>P12</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <f>P19</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="2">
+        <f>E8</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="2">
+        <f>F9</f>
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2">
+        <f>F12</f>
         <v>1</v>
       </c>
-      <c r="J2" s="1">
-        <f>G23</f>
+      <c r="AL2" s="2">
+        <f>E13</f>
         <v>1</v>
       </c>
-      <c r="K2" s="1">
-        <f>H22</f>
+      <c r="AM2" s="2">
+        <f>E26</f>
         <v>1</v>
       </c>
-      <c r="L2" s="1">
-        <f>K22</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <f>R22</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <f>N22</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <f>F24</f>
+      <c r="AN2" s="2">
+        <f>F27</f>
         <v>1</v>
       </c>
-      <c r="P2" s="1">
-        <f>N23</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <f>N15</f>
+      <c r="AO2" s="2">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="AP2" s="2">
+        <f>F19</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2">
+        <f>E31</f>
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2">
+        <f>F30</f>
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2">
+        <f>I30</f>
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2">
+        <f>J31</f>
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2">
+        <f>W31</f>
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2">
+        <f>X30</f>
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2">
+        <f>P31</f>
+        <v>0</v>
+      </c>
+      <c r="AX2" s="2">
+        <f>P30</f>
+        <v>0</v>
+      </c>
+      <c r="AY2" s="2">
+        <f>AB31</f>
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2">
+        <f>AA30</f>
+        <v>0</v>
+      </c>
+      <c r="BA2" s="2">
+        <f>AA27</f>
         <v>1</v>
       </c>
-      <c r="R2" s="1">
-        <f>V23</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <f>U22</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <f>U19</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <f>U12</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <f>U15</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <f>W24</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
-        <f>V15</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <f>N15</f>
+      <c r="BB2" s="2">
+        <f>AB26</f>
         <v>1</v>
       </c>
-      <c r="Z2" s="1">
-        <f>V8</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <f>U9</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <f>R9</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <f>K9</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <f>N9</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <f>W7</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1">
-        <f>N8</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1">
-        <f>N15</f>
+      <c r="BC2" s="2">
+        <f>AB13</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:52" ht="18.75" customHeight="1">
+      <c r="BD2" s="2">
+        <f>AA12</f>
+        <v>1</v>
+      </c>
+      <c r="BE2" s="2">
+        <f>AB19</f>
+        <v>0</v>
+      </c>
+      <c r="BF2" s="2">
+        <f>AA19</f>
+        <v>0</v>
+      </c>
+      <c r="BG2" s="2">
+        <f>AB8</f>
+        <v>0</v>
+      </c>
+      <c r="BH2" s="2">
+        <f>AA9</f>
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2">
+        <f>X9</f>
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="2">
+        <f>W8</f>
+        <v>0</v>
+      </c>
+      <c r="BK2" s="2">
+        <f>J8</f>
+        <v>0</v>
+      </c>
+      <c r="BL2" s="2">
+        <f>I9</f>
+        <v>0</v>
+      </c>
+      <c r="BM2" s="2">
+        <f>P8</f>
+        <v>0</v>
+      </c>
+      <c r="BN2" s="2">
+        <f>P9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" ht="18.75" customHeight="1">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2327,15 +2959,15 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" si="0"/>
-        <v>16777216</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="0"/>
-        <v>8388608</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="0"/>
@@ -2351,7 +2983,7 @@
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
@@ -2359,7 +2991,7 @@
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="0"/>
@@ -2391,7 +3023,7 @@
       </c>
       <c r="Y3" s="1">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <f t="shared" si="0"/>
@@ -2422,563 +3054,1242 @@
         <v>0</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" ht="18.75" customHeight="1">
+        <f>_xlfn.BITLSHIFT(AG2,AG1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f>_xlfn.BITLSHIFT(AI2,AI1)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ref="AI3:BM3" si="1">_xlfn.BITLSHIFT(AJ2,AJ1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="1"/>
+        <v>536870912</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="1"/>
+        <v>268435456</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="1"/>
+        <v>134217728</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="1"/>
+        <v>67108864</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" si="1"/>
+        <v>8192</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" si="1"/>
+        <v>4096</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <f>_xlfn.BITLSHIFT(BN2,BN1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" ht="18.75" customHeight="1">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>"0x"&amp;REPT("0",8-LEN(DEC2HEX(SUM(B3:AG3))))&amp;DEC2HEX(SUM(B3:AG3))</f>
-        <v>0x01C50101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" ht="18.75" customHeight="1">
-      <c r="N5" s="2" t="s">
+        <v>0x00000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" ht="18.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"0x"&amp;REPT("0",8-LEN(DEC2HEX(SUM(AI3:BN3))))&amp;DEC2HEX(SUM(AI3:BN3))</f>
+        <v>0x3C003C00</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" ht="18.75" customHeight="1">
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+    </row>
+    <row r="7" spans="1:66" ht="18.75" customHeight="1">
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="37"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="5"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="7"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="9"/>
+    </row>
+    <row r="8" spans="1:66" ht="18.75" customHeight="1">
+      <c r="D8" s="32"/>
+      <c r="E8" s="28">
+        <v>0</v>
+      </c>
+      <c r="F8" s="79"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="28">
+        <v>0</v>
+      </c>
+      <c r="K8" s="38"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="28">
+        <v>0</v>
+      </c>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="38"/>
+      <c r="AH8" s="4"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="4"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="4"/>
+      <c r="AX8" s="10"/>
+      <c r="AZ8" s="4"/>
+    </row>
+    <row r="9" spans="1:66" ht="18.75" customHeight="1">
+      <c r="D9" s="32"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="28">
+        <v>0</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="28">
+        <v>0</v>
+      </c>
+      <c r="J9" s="82"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="38"/>
+      <c r="AH9" s="4"/>
+      <c r="AJ9" s="10"/>
+      <c r="AL9" s="4"/>
+      <c r="AO9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AV9" s="4"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="4"/>
+    </row>
+    <row r="10" spans="1:66" ht="18.75" customHeight="1">
+      <c r="D10" s="80"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="83"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="15"/>
+    </row>
+    <row r="11" spans="1:66" ht="18.75" customHeight="1">
+      <c r="D11" s="81"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="42">
+        <v>0</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="48">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="84"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="7"/>
+      <c r="AL11" s="6"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AV11" s="4"/>
+      <c r="AZ11" s="6"/>
+    </row>
+    <row r="12" spans="1:66" ht="18.75" customHeight="1">
+      <c r="D12" s="32"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="28">
+        <v>1</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="49">
+        <v>0</v>
+      </c>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="38"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="12"/>
+      <c r="AL12" s="4"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AV12" s="4"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="18"/>
+    </row>
+    <row r="13" spans="1:66" ht="18.75" customHeight="1">
+      <c r="D13" s="32"/>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="49">
+        <v>0</v>
+      </c>
+      <c r="K13" s="51"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="49">
+        <v>0</v>
+      </c>
+      <c r="N13" s="59"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="49">
+        <v>0</v>
+      </c>
+      <c r="U13" s="51"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="49">
+        <v>0</v>
+      </c>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="38"/>
+      <c r="AH13" s="4"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="4"/>
+      <c r="AP13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AV13" s="4"/>
+      <c r="AX13" s="11"/>
+      <c r="AZ13" s="4"/>
+    </row>
+    <row r="14" spans="1:66" ht="18.75" customHeight="1">
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="41"/>
+      <c r="AH14" s="4"/>
+      <c r="AJ14" s="11"/>
+      <c r="AL14" s="4"/>
+      <c r="AO14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="20"/>
+      <c r="AX14" s="11"/>
+      <c r="AZ14" s="4"/>
+    </row>
+    <row r="15" spans="1:66" ht="18.75" customHeight="1">
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="37"/>
+      <c r="AH15" s="4"/>
+      <c r="AJ15" s="11"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="4"/>
+      <c r="AX15" s="11"/>
+      <c r="AZ15" s="4"/>
+    </row>
+    <row r="16" spans="1:66" ht="18.75" customHeight="1">
+      <c r="D16" s="91"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="49">
+        <v>0</v>
+      </c>
+      <c r="K16" s="51"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="49">
+        <v>0</v>
+      </c>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="95"/>
+      <c r="AH16" s="4"/>
+      <c r="AJ16" s="11"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="4"/>
+      <c r="AX16" s="11"/>
+      <c r="AZ16" s="4"/>
+    </row>
+    <row r="17" spans="2:52" ht="18.75" customHeight="1">
+      <c r="D17" s="32"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="38"/>
+      <c r="AH17" s="4"/>
+      <c r="AJ17" s="11"/>
+      <c r="AL17" s="4"/>
+      <c r="AO17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="20"/>
+      <c r="AX17" s="11"/>
+      <c r="AZ17" s="4"/>
+    </row>
+    <row r="18" spans="2:52" ht="18.75" customHeight="1">
+      <c r="D18" s="32"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="38"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="4"/>
+      <c r="AP18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AV18" s="4"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="18"/>
+    </row>
+    <row r="19" spans="2:52" ht="18.75" customHeight="1">
+      <c r="D19" s="32"/>
+      <c r="E19" s="87">
+        <v>0</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="74">
+        <v>0</v>
+      </c>
+      <c r="J19" s="49">
+        <v>0</v>
+      </c>
+      <c r="K19" s="51"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="74">
+        <v>0</v>
+      </c>
+      <c r="X19" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="87">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="38"/>
+      <c r="AH19" s="4"/>
+      <c r="AJ19" s="10"/>
+      <c r="AL19" s="4"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AV19" s="4"/>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="4"/>
+    </row>
+    <row r="20" spans="2:52" ht="18.75" customHeight="1">
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:52" ht="18.75" customHeight="1">
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-    </row>
-    <row r="7" spans="1:52" ht="18.75" customHeight="1">
-      <c r="E7" s="5"/>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="47"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="11"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="13"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="15"/>
-    </row>
-    <row r="8" spans="1:52" ht="18.75" customHeight="1">
-      <c r="E8" s="5"/>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="5"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="18">
-        <v>0</v>
-      </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="5"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="5"/>
-      <c r="AH8" s="10"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="10"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="22"/>
-      <c r="AQ8" s="22"/>
-      <c r="AR8" s="22"/>
-      <c r="AS8" s="22"/>
-      <c r="AT8" s="23"/>
-      <c r="AU8" s="20"/>
-      <c r="AV8" s="10"/>
-      <c r="AX8" s="20"/>
-      <c r="AZ8" s="10"/>
-    </row>
-    <row r="9" spans="1:52" ht="18.75" customHeight="1">
-      <c r="E9" s="5"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="49"/>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5"/>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9" s="55"/>
-      <c r="W9" s="5"/>
-      <c r="AH9" s="10"/>
-      <c r="AJ9" s="20"/>
-      <c r="AL9" s="10"/>
-      <c r="AO9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AV9" s="10"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="10"/>
-    </row>
-    <row r="10" spans="1:52" ht="18.75" customHeight="1">
-      <c r="E10" s="5"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="56"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="27"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
-      <c r="AY10" s="4"/>
-      <c r="AZ10" s="27"/>
-    </row>
-    <row r="11" spans="1:52" ht="18.75" customHeight="1">
-      <c r="E11" s="5"/>
-      <c r="F11" s="47"/>
-      <c r="I11" s="7"/>
-      <c r="S11" s="5"/>
-      <c r="W11" s="54"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="13"/>
-      <c r="AL11" s="12"/>
-      <c r="AQ11" s="28"/>
-      <c r="AR11" s="28"/>
-      <c r="AV11" s="10"/>
-      <c r="AZ11" s="12"/>
-    </row>
-    <row r="12" spans="1:52" ht="18.75" customHeight="1">
-      <c r="E12" s="5"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="U12" s="1">
-        <v>0</v>
-      </c>
-      <c r="V12" s="57"/>
-      <c r="W12" s="30"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="22"/>
-      <c r="AL12" s="10"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AV12" s="10"/>
-      <c r="AY12" s="22"/>
-      <c r="AZ12" s="32"/>
-    </row>
-    <row r="13" spans="1:52" ht="18.75" customHeight="1">
-      <c r="E13" s="5"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="U13" s="58"/>
-      <c r="W13" s="5"/>
-      <c r="AH13" s="10"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="10"/>
-      <c r="AP13" s="20"/>
-      <c r="AS13" s="20"/>
-      <c r="AV13" s="10"/>
-      <c r="AX13" s="21"/>
-      <c r="AZ13" s="10"/>
-    </row>
-    <row r="14" spans="1:52" ht="18.75" customHeight="1">
-      <c r="E14" s="5"/>
-      <c r="G14" s="16"/>
-      <c r="I14" s="68"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="16"/>
-      <c r="W14" s="5"/>
-      <c r="AH14" s="10"/>
-      <c r="AJ14" s="21"/>
-      <c r="AL14" s="10"/>
-      <c r="AO14" s="20"/>
-      <c r="AT14" s="20"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="35"/>
-      <c r="AX14" s="21"/>
-      <c r="AZ14" s="10"/>
-    </row>
-    <row r="15" spans="1:52" ht="18.75" customHeight="1">
-      <c r="E15" s="5"/>
-      <c r="G15" s="36">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="N15" s="1">
+      <c r="D20" s="32"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="38"/>
+      <c r="AE20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="15"/>
+    </row>
+    <row r="21" spans="2:52" ht="18.75" customHeight="1">
+      <c r="D21" s="32"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="38"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="7"/>
+      <c r="AL21" s="6"/>
+      <c r="AP21" s="16"/>
+      <c r="AS21" s="16"/>
+      <c r="AV21" s="6"/>
+      <c r="AZ21" s="6"/>
+    </row>
+    <row r="22" spans="2:52" ht="18.75" customHeight="1">
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="95"/>
+      <c r="AH22" s="4"/>
+      <c r="AJ22" s="10"/>
+      <c r="AL22" s="4"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AV22" s="4"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="4"/>
+    </row>
+    <row r="23" spans="2:52" ht="18.75" customHeight="1">
+      <c r="D23" s="32"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="49">
+        <v>0</v>
+      </c>
+      <c r="K23" s="51"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="49">
+        <v>0</v>
+      </c>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="38"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="17"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="4"/>
+      <c r="AN23" s="11"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="4"/>
+      <c r="AX23" s="10"/>
+      <c r="AZ23" s="18"/>
+    </row>
+    <row r="24" spans="2:52" ht="18.75" customHeight="1">
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="41"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="22"/>
+      <c r="AZ24" s="15"/>
+    </row>
+    <row r="25" spans="2:52" ht="18.75" customHeight="1">
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="81"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="37"/>
+    </row>
+    <row r="26" spans="2:52" ht="18.75" customHeight="1">
+      <c r="D26" s="32"/>
+      <c r="E26" s="28">
         <v>1</v>
       </c>
-      <c r="S15" s="5"/>
-      <c r="U15" s="36">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="5"/>
-      <c r="AH15" s="10"/>
-      <c r="AJ15" s="21"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="20"/>
-      <c r="AU15" s="20"/>
-      <c r="AV15" s="10"/>
-      <c r="AX15" s="21"/>
-      <c r="AZ15" s="10"/>
-    </row>
-    <row r="16" spans="1:52" ht="18.75" customHeight="1">
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="G16" s="16"/>
-      <c r="I16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="U16" s="16"/>
-      <c r="W16" s="5"/>
-      <c r="Y16" s="2" t="s">
+      <c r="F26" s="79"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="49">
+        <v>0</v>
+      </c>
+      <c r="K26" s="51"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="49">
+        <v>0</v>
+      </c>
+      <c r="N26" s="68"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="49">
+        <v>0</v>
+      </c>
+      <c r="U26" s="51"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="49">
+        <v>0</v>
+      </c>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="38"/>
+    </row>
+    <row r="27" spans="2:52" ht="18.75" customHeight="1">
+      <c r="D27" s="32"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="28">
+        <v>1</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="49">
+        <v>0</v>
+      </c>
+      <c r="J27" s="57"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="82"/>
+      <c r="AC27" s="38"/>
+    </row>
+    <row r="28" spans="2:52" ht="18.75" customHeight="1">
+      <c r="D28" s="80"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="77">
+        <v>0</v>
+      </c>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="49">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="83"/>
+    </row>
+    <row r="29" spans="2:52" ht="18.75" customHeight="1">
+      <c r="D29" s="81"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="81"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="84"/>
+    </row>
+    <row r="30" spans="2:52" ht="18.75" customHeight="1">
+      <c r="D30" s="32"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="28">
+        <v>0</v>
+      </c>
+      <c r="G30" s="38"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="28">
+        <v>0</v>
+      </c>
+      <c r="J30" s="79"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="38"/>
+    </row>
+    <row r="31" spans="2:52">
+      <c r="D31" s="32"/>
+      <c r="E31" s="28">
+        <v>0</v>
+      </c>
+      <c r="F31" s="82"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="28">
+        <v>0</v>
+      </c>
+      <c r="K31" s="38"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="28">
+        <v>0</v>
+      </c>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="38"/>
+    </row>
+    <row r="32" spans="2:52">
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="83"/>
+      <c r="Z32" s="80"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="41"/>
+    </row>
+    <row r="33" spans="8:16">
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+    </row>
+    <row r="35" spans="8:16">
+      <c r="P35" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="AH16" s="10"/>
-      <c r="AJ16" s="21"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="35"/>
-      <c r="AN16" s="20"/>
-      <c r="AU16" s="20"/>
-      <c r="AV16" s="10"/>
-      <c r="AX16" s="21"/>
-      <c r="AZ16" s="10"/>
-    </row>
-    <row r="17" spans="5:52" ht="18.75" customHeight="1">
-      <c r="E17" s="5"/>
-      <c r="G17" s="16"/>
-      <c r="I17" s="67"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="16"/>
-      <c r="W17" s="5"/>
-      <c r="AH17" s="10"/>
-      <c r="AJ17" s="21"/>
-      <c r="AL17" s="10"/>
-      <c r="AO17" s="20"/>
-      <c r="AT17" s="20"/>
-      <c r="AV17" s="10"/>
-      <c r="AW17" s="35"/>
-      <c r="AX17" s="21"/>
-      <c r="AZ17" s="10"/>
-    </row>
-    <row r="18" spans="5:52" ht="18.75" customHeight="1">
-      <c r="E18" s="5"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="30"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="20"/>
-      <c r="AL18" s="10"/>
-      <c r="AP18" s="20"/>
-      <c r="AS18" s="20"/>
-      <c r="AV18" s="10"/>
-      <c r="AX18" s="21"/>
-      <c r="AY18" s="22"/>
-      <c r="AZ18" s="32"/>
-    </row>
-    <row r="19" spans="5:52" ht="18.75" customHeight="1">
-      <c r="E19" s="5"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="U19" s="1">
-        <v>0</v>
-      </c>
-      <c r="V19" s="49"/>
-      <c r="W19" s="5"/>
-      <c r="AH19" s="10"/>
-      <c r="AJ19" s="20"/>
-      <c r="AL19" s="10"/>
-      <c r="AQ19" s="20"/>
-      <c r="AR19" s="20"/>
-      <c r="AV19" s="10"/>
-      <c r="AY19" s="20"/>
-      <c r="AZ19" s="10"/>
-    </row>
-    <row r="20" spans="5:52" ht="18.75" customHeight="1">
-      <c r="E20" s="5"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="56"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="27"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="27"/>
-    </row>
-    <row r="21" spans="5:52" ht="18.75" customHeight="1">
-      <c r="E21" s="5"/>
-      <c r="F21" s="47"/>
-      <c r="I21" s="7"/>
-      <c r="M21" s="66"/>
-      <c r="P21" s="65"/>
-      <c r="S21" s="7"/>
-      <c r="W21" s="54"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="13"/>
-      <c r="AL21" s="12"/>
-      <c r="AP21" s="28"/>
-      <c r="AS21" s="28"/>
-      <c r="AV21" s="12"/>
-      <c r="AZ21" s="12"/>
-    </row>
-    <row r="22" spans="5:52" ht="18.75" customHeight="1">
-      <c r="E22" s="5"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="18">
-        <v>0</v>
-      </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5"/>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
-      <c r="V22" s="61"/>
-      <c r="W22" s="5"/>
-      <c r="AH22" s="10"/>
-      <c r="AJ22" s="20"/>
-      <c r="AL22" s="10"/>
-      <c r="AO22" s="22"/>
-      <c r="AP22" s="22"/>
-      <c r="AQ22" s="22"/>
-      <c r="AR22" s="22"/>
-      <c r="AS22" s="22"/>
-      <c r="AT22" s="22"/>
-      <c r="AV22" s="10"/>
-      <c r="AY22" s="20"/>
-      <c r="AZ22" s="10"/>
-    </row>
-    <row r="23" spans="5:52" ht="18.75" customHeight="1">
-      <c r="E23" s="5"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="5"/>
-      <c r="K23" s="58"/>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="5"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="30"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="31"/>
-      <c r="AK23" s="20"/>
-      <c r="AL23" s="10"/>
-      <c r="AN23" s="21"/>
-      <c r="AT23" s="34"/>
-      <c r="AU23" s="20"/>
-      <c r="AV23" s="10"/>
-      <c r="AX23" s="20"/>
-      <c r="AZ23" s="32"/>
-    </row>
-    <row r="24" spans="5:52" ht="18.75" customHeight="1">
-      <c r="E24" s="5"/>
-      <c r="F24" s="37">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="39">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="40"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="27"/>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="41"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4"/>
-      <c r="AT24" s="41"/>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="27"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
-      <c r="AY24" s="41"/>
-      <c r="AZ24" s="27"/>
-    </row>
-    <row r="25" spans="5:52" ht="18.75" customHeight="1"/>
-    <row r="26" spans="5:52" ht="18.75" customHeight="1">
-      <c r="N26" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/pier/piers.xlsx
+++ b/pier/piers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\simutrans-pak128.japan-ex-addons\pier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2DE067-A41E-4083-9C7C-027AD168FB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B024D0-FFBE-4326-B2EF-E7A9C134A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1110" yWindow="615" windowWidth="45765" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="116">
   <si>
     <t>自動設置グループ 32まで</t>
   </si>
@@ -345,9 +345,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>0xC4C4C4C4</t>
-  </si>
-  <si>
     <t>0x003A0000</t>
   </si>
   <si>
@@ -451,8 +448,39 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>0x03</t>
+    <t>iss_pier2_deck</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コンクリート橋脚2 高架</t>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コンクリート橋脚2 橋脚 [対角]</t>
+    <rPh sb="10" eb="12">
+      <t>キョウキャク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイカク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0x02</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0x3C003000</t>
+  </si>
+  <si>
+    <t>iss_pier2_pillar_diag</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0x84848484</t>
   </si>
 </sst>
 </file>
@@ -1711,20 +1739,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
     <col min="4" max="5" width="13.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11" style="23" bestFit="1" customWidth="1"/>
@@ -1793,19 +1821,19 @@
         <v>49</v>
       </c>
       <c r="R1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S1" t="s">
         <v>50</v>
       </c>
       <c r="T1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U1" t="s">
         <v>51</v>
       </c>
       <c r="V1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W1" t="s">
         <v>52</v>
@@ -1931,19 +1959,19 @@
         <v>0x00</v>
       </c>
       <c r="Q4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R4" t="s">
         <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T4" t="s">
         <v>78</v>
       </c>
       <c r="U4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V4" t="s">
         <v>78</v>
@@ -1963,10 +1991,10 @@
         <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>73</v>
@@ -1999,7 +2027,7 @@
         <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O5" t="s">
         <v>84</v>
@@ -2009,19 +2037,19 @@
         <v>0x00</v>
       </c>
       <c r="Q5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R5" t="s">
         <v>78</v>
       </c>
       <c r="S5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T5" t="s">
         <v>78</v>
       </c>
       <c r="U5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V5" t="s">
         <v>78</v>
@@ -2077,7 +2105,7 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O6" t="s">
         <v>84</v>
@@ -2087,7 +2115,7 @@
         <v>0x00</v>
       </c>
       <c r="Q6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R6" t="s">
         <v>78</v>
@@ -2099,7 +2127,7 @@
         <v>78</v>
       </c>
       <c r="U6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s">
         <v>78</v>
@@ -2119,13 +2147,13 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>91</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
       </c>
       <c r="E7" t="s">
         <v>74</v>
@@ -2155,7 +2183,7 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O7" t="s">
         <v>84</v>
@@ -2165,19 +2193,19 @@
         <v>0x00</v>
       </c>
       <c r="Q7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R7" t="s">
         <v>78</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T7" t="s">
         <v>78</v>
       </c>
       <c r="U7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V7" t="s">
         <v>78</v>
@@ -2243,19 +2271,19 @@
         <v>0x00</v>
       </c>
       <c r="Q8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R8" t="s">
         <v>78</v>
       </c>
       <c r="S8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T8" t="s">
         <v>78</v>
       </c>
       <c r="U8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V8" t="s">
         <v>78</v>
@@ -2275,10 +2303,10 @@
         <v>70</v>
       </c>
       <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
         <v>95</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
       </c>
       <c r="D9" t="s">
         <v>82</v>
@@ -2311,7 +2339,7 @@
         <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O9" t="s">
         <v>84</v>
@@ -2321,19 +2349,19 @@
         <v>0x00</v>
       </c>
       <c r="Q9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R9" t="s">
         <v>78</v>
       </c>
       <c r="S9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T9" t="s">
         <v>78</v>
       </c>
       <c r="U9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V9" t="s">
         <v>78</v>
@@ -2353,13 +2381,13 @@
         <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
         <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>102</v>
       </c>
       <c r="E10" t="s">
         <v>74</v>
@@ -2392,29 +2420,29 @@
         <v>15</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P10" t="str">
         <f>IF(K10="通常","0x00","0x80")</f>
         <v>0x00</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="R10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S10" t="s">
         <v>78</v>
       </c>
       <c r="T10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U10" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="V10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W10" t="s">
         <v>75</v>
@@ -2423,6 +2451,162 @@
         <v>78</v>
       </c>
       <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1990</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>120</v>
+      </c>
+      <c r="I11" s="1">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" t="str">
+        <f>IF(K11="通常","0x00","0x80")</f>
+        <v>0x00</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s">
+        <v>113</v>
+      </c>
+      <c r="U11" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s">
+        <v>113</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1990</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>120</v>
+      </c>
+      <c r="I12" s="1">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" t="str">
+        <f>IF(K12="通常","0x00","0x80")</f>
+        <v>0x00</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U12" t="s">
+        <v>85</v>
+      </c>
+      <c r="V12" t="s">
+        <v>104</v>
+      </c>
+      <c r="W12" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2436,13 +2620,13 @@
           <x14:formula1>
             <xm:f>lists!$C$2:$C$17</xm:f>
           </x14:formula1>
-          <xm:sqref>L4:N10</xm:sqref>
+          <xm:sqref>L4:N12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C542210-EB8F-49C2-9610-E390318EBFD4}">
           <x14:formula1>
             <xm:f>lists!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J10</xm:sqref>
+          <xm:sqref>J4:J12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2458,7 +2642,7 @@
   <dimension ref="A1:BN35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
@@ -2670,7 +2854,7 @@
       </c>
       <c r="B2" s="1">
         <f>I12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <f>J13</f>
@@ -2690,7 +2874,7 @@
       </c>
       <c r="G2" s="1">
         <f>H11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <f>I19</f>
@@ -2702,7 +2886,7 @@
       </c>
       <c r="J2" s="1">
         <f>I27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
         <f>J26</f>
@@ -2722,7 +2906,7 @@
       </c>
       <c r="O2" s="1">
         <f>H28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1">
         <f>P27</f>
@@ -2734,7 +2918,7 @@
       </c>
       <c r="R2" s="1">
         <f>X27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="1">
         <f>W26</f>
@@ -2754,7 +2938,7 @@
       </c>
       <c r="W2" s="1">
         <f>Y28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1">
         <f>X19</f>
@@ -2766,7 +2950,7 @@
       </c>
       <c r="Z2" s="1">
         <f>X12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1">
         <f>W13</f>
@@ -2786,7 +2970,7 @@
       </c>
       <c r="AE2" s="1">
         <f>Y11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1">
         <f>P12</f>
@@ -2931,7 +3115,7 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:AG3" si="0">_xlfn.BITLSHIFT(B2,B1)</f>
-        <v>0</v>
+        <v>2147483648</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
@@ -2951,7 +3135,7 @@
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67108864</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
@@ -2963,7 +3147,7 @@
       </c>
       <c r="J3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8388608</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="0"/>
@@ -2983,7 +3167,7 @@
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>262144</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
@@ -2995,7 +3179,7 @@
       </c>
       <c r="R3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" si="0"/>
@@ -3015,7 +3199,7 @@
       </c>
       <c r="W3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X3" s="1">
         <f t="shared" si="0"/>
@@ -3027,7 +3211,7 @@
       </c>
       <c r="Z3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="0"/>
@@ -3047,7 +3231,7 @@
       </c>
       <c r="AE3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF3" s="1">
         <f t="shared" si="0"/>
@@ -3188,16 +3372,16 @@
     </row>
     <row r="4" spans="1:66" ht="18.75" customHeight="1">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>"0x"&amp;REPT("0",8-LEN(DEC2HEX(SUM(B3:AG3))))&amp;DEC2HEX(SUM(B3:AG3))</f>
-        <v>0x00000000</v>
+        <v>0x84848484</v>
       </c>
     </row>
     <row r="5" spans="1:66" ht="18.75" customHeight="1">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>"0x"&amp;REPT("0",8-LEN(DEC2HEX(SUM(AI3:BN3))))&amp;DEC2HEX(SUM(AI3:BN3))</f>
@@ -3416,7 +3600,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="31"/>
       <c r="H11" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
@@ -3435,7 +3619,7 @@
       <c r="W11" s="43"/>
       <c r="X11" s="47"/>
       <c r="Y11" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="29"/>
       <c r="AA11" s="30"/>
@@ -3458,7 +3642,7 @@
       <c r="G12" s="33"/>
       <c r="H12" s="43"/>
       <c r="I12" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="50"/>
       <c r="K12" s="51"/>
@@ -3477,7 +3661,7 @@
       <c r="V12" s="45"/>
       <c r="W12" s="57"/>
       <c r="X12" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="58"/>
       <c r="Z12" s="32"/>
@@ -4088,7 +4272,7 @@
       <c r="G27" s="33"/>
       <c r="H27" s="53"/>
       <c r="I27" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="57"/>
       <c r="K27" s="51"/>
@@ -4107,7 +4291,7 @@
       <c r="V27" s="45"/>
       <c r="W27" s="50"/>
       <c r="X27" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="53"/>
       <c r="Z27" s="32"/>
@@ -4123,7 +4307,7 @@
       <c r="F28" s="35"/>
       <c r="G28" s="36"/>
       <c r="H28" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="58"/>
       <c r="J28" s="58"/>
@@ -4142,7 +4326,7 @@
       <c r="W28" s="58"/>
       <c r="X28" s="47"/>
       <c r="Y28" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="34"/>
       <c r="AA28" s="35"/>

--- a/pier/piers.xlsx
+++ b/pier/piers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\simutrans-pak128.japan-ex-addons\pier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B024D0-FFBE-4326-B2EF-E7A9C134A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAF8662-B6A2-4560-B420-C65875CEA99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="615" windowWidth="45765" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="117">
   <si>
     <t>自動設置グループ 32まで</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>1 木製</t>
-  </si>
-  <si>
-    <t>低</t>
   </si>
   <si>
     <t>北</t>
@@ -481,6 +478,17 @@
   </si>
   <si>
     <t>0x84848484</t>
+  </si>
+  <si>
+    <t>max_altitude</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1739,13 +1747,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1768,130 +1776,133 @@
     <col min="25" max="25" width="13.625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" customHeight="1">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" t="s">
         <v>49</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>105</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>106</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="V1" t="s">
-        <v>107</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>52</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Z1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="18.75" customHeight="1">
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="18.75" customHeight="1">
-      <c r="B2" t="s">
+      <c r="C2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="J2" t="s">
         <v>59</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>60</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>62</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>63</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A3" s="25" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="B3" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="F3" s="26">
         <v>4</v>
@@ -1908,21 +1919,21 @@
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
     </row>
-    <row r="4" spans="1:25" ht="19.5" customHeight="1">
+    <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
       </c>
       <c r="F4" s="1">
         <v>1990</v>
@@ -1940,67 +1951,70 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="L4" t="s">
         <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P4" t="str">
-        <f>IF(K4="通常","0x00","0x80")</f>
-        <v>0x00</v>
+        <f t="shared" ref="P4:P12" si="0">IF(K4="通常","0x00","0x80")</f>
+        <v>0x80</v>
       </c>
       <c r="Q4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="19.5" customHeight="1">
+      <c r="Z4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="19.5" customHeight="1">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
         <v>73</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
       </c>
       <c r="F5" s="1">
         <v>1990</v>
@@ -2018,67 +2032,70 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="L5" t="s">
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P5" t="str">
-        <f>IF(K5="通常","0x00","0x80")</f>
-        <v>0x00</v>
+        <f t="shared" si="0"/>
+        <v>0x80</v>
       </c>
       <c r="Q5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
         <v>75</v>
       </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="1">
         <v>1990</v>
@@ -2099,64 +2116,67 @@
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>0x00</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" t="s">
         <v>84</v>
       </c>
-      <c r="P6" t="str">
-        <f>IF(K6="通常","0x00","0x80")</f>
-        <v>0x00</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W6" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6" t="s">
         <v>78</v>
       </c>
-      <c r="S6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T6" t="s">
-        <v>78</v>
-      </c>
-      <c r="U6" t="s">
-        <v>78</v>
-      </c>
-      <c r="V6" t="s">
-        <v>78</v>
-      </c>
-      <c r="W6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X6" t="s">
-        <v>79</v>
-      </c>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="19.5" customHeight="1">
+      <c r="Z6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="19.5" customHeight="1">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" t="s">
-        <v>91</v>
-      </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="1">
         <v>1990</v>
@@ -2177,64 +2197,67 @@
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P7" t="str">
-        <f>IF(K7="通常","0x00","0x80")</f>
+        <f t="shared" si="0"/>
         <v>0x00</v>
       </c>
       <c r="Q7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7" t="s">
+        <v>91</v>
+      </c>
+      <c r="V7" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" t="s">
+        <v>74</v>
+      </c>
+      <c r="X7" t="s">
         <v>78</v>
       </c>
-      <c r="S7" t="s">
-        <v>93</v>
-      </c>
-      <c r="T7" t="s">
-        <v>78</v>
-      </c>
-      <c r="U7" t="s">
-        <v>92</v>
-      </c>
-      <c r="V7" t="s">
-        <v>78</v>
-      </c>
-      <c r="W7" t="s">
-        <v>75</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
         <v>79</v>
       </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>81</v>
       </c>
-      <c r="D8" t="s">
-        <v>82</v>
-      </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="1">
         <v>1990</v>
@@ -2252,67 +2275,70 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="L8" t="s">
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P8" t="str">
-        <f>IF(K8="通常","0x00","0x80")</f>
-        <v>0x00</v>
+        <f t="shared" si="0"/>
+        <v>0x80</v>
       </c>
       <c r="Q8" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s">
         <v>86</v>
       </c>
-      <c r="R8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S8" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" t="s">
-        <v>78</v>
-      </c>
-      <c r="U8" t="s">
-        <v>87</v>
-      </c>
       <c r="V8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="19.5" customHeight="1">
+      <c r="Z8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
         <v>94</v>
       </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1">
         <v>1990</v>
@@ -2330,67 +2356,70 @@
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
         <v>5</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P9" t="str">
-        <f>IF(K9="通常","0x00","0x80")</f>
-        <v>0x00</v>
+        <f t="shared" si="0"/>
+        <v>0x80</v>
       </c>
       <c r="Q9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="15">
+      <c r="Z9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
         <v>100</v>
       </c>
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1">
         <v>1990</v>
@@ -2408,67 +2437,70 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
         <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P10" t="str">
-        <f>IF(K10="通常","0x00","0x80")</f>
-        <v>0x00</v>
+        <f t="shared" si="0"/>
+        <v>0x80</v>
       </c>
       <c r="Q10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="15">
+      <c r="Z10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="1">
         <v>1990</v>
@@ -2486,67 +2518,70 @@
         <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
         <v>5</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>0x80</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" t="s">
         <v>112</v>
       </c>
-      <c r="P11" t="str">
-        <f>IF(K11="通常","0x00","0x80")</f>
-        <v>0x00</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>78</v>
-      </c>
-      <c r="R11" t="s">
-        <v>113</v>
-      </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="15">
+      <c r="Z11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
         <v>109</v>
       </c>
-      <c r="C12" t="s">
-        <v>110</v>
-      </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="1">
         <v>1990</v>
@@ -2567,47 +2602,50 @@
         <v>4</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P12" t="str">
-        <f>IF(K12="通常","0x00","0x80")</f>
+        <f t="shared" si="0"/>
         <v>0x00</v>
       </c>
       <c r="Q12" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" t="s">
+        <v>103</v>
+      </c>
+      <c r="S12" t="s">
+        <v>84</v>
+      </c>
+      <c r="T12" t="s">
+        <v>103</v>
+      </c>
+      <c r="U12" t="s">
+        <v>84</v>
+      </c>
+      <c r="V12" t="s">
+        <v>103</v>
+      </c>
+      <c r="W12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X12" t="s">
         <v>78</v>
       </c>
-      <c r="R12" t="s">
-        <v>104</v>
-      </c>
-      <c r="S12" t="s">
-        <v>85</v>
-      </c>
-      <c r="T12" t="s">
-        <v>104</v>
-      </c>
-      <c r="U12" t="s">
-        <v>85</v>
-      </c>
-      <c r="V12" t="s">
-        <v>104</v>
-      </c>
-      <c r="W12" t="s">
-        <v>75</v>
-      </c>
-      <c r="X12" t="s">
-        <v>79</v>
-      </c>
       <c r="Y12" s="1">
         <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2615,7 +2653,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B1DFDF6-C7F2-4431-B9C3-759573B3D005}">
           <x14:formula1>
             <xm:f>lists!$C$2:$C$17</xm:f>
@@ -2627,6 +2665,12 @@
             <xm:f>lists!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EF65565-5161-47F8-9590-9818B786A7A0}">
+          <x14:formula1>
+            <xm:f>lists!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K4:K12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2653,7 +2697,7 @@
   <sheetData>
     <row r="1" spans="1:66" ht="18.75" customHeight="1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1">
         <v>31</v>
@@ -2850,7 +2894,7 @@
     </row>
     <row r="2" spans="1:66" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
         <f>I12</f>
@@ -3111,10 +3155,10 @@
     </row>
     <row r="3" spans="1:66" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:AG3" si="0">_xlfn.BITLSHIFT(B2,B1)</f>
+        <f t="shared" ref="B3:AF3" si="0">_xlfn.BITLSHIFT(B2,B1)</f>
         <v>2147483648</v>
       </c>
       <c r="C3" s="1">
@@ -3246,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AI3:BM3" si="1">_xlfn.BITLSHIFT(AJ2,AJ1)</f>
+        <f t="shared" ref="AJ3:BM3" si="1">_xlfn.BITLSHIFT(AJ2,AJ1)</f>
         <v>0</v>
       </c>
       <c r="AK3">
@@ -3372,7 +3416,7 @@
     </row>
     <row r="4" spans="1:66" ht="18.75" customHeight="1">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>"0x"&amp;REPT("0",8-LEN(DEC2HEX(SUM(B3:AG3))))&amp;DEC2HEX(SUM(B3:AG3))</f>
@@ -3381,14 +3425,14 @@
     </row>
     <row r="5" spans="1:66" ht="18.75" customHeight="1">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>"0x"&amp;REPT("0",8-LEN(DEC2HEX(SUM(AI3:BN3))))&amp;DEC2HEX(SUM(AI3:BN3))</f>
         <v>0x3C003C00</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:66" ht="18.75" customHeight="1">
@@ -3978,7 +4022,7 @@
     </row>
     <row r="20" spans="2:52" ht="18.75" customHeight="1">
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="87"/>
@@ -4007,7 +4051,7 @@
       <c r="AB20" s="28"/>
       <c r="AC20" s="38"/>
       <c r="AE20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AH20" s="4"/>
       <c r="AI20" s="14"/>
@@ -4473,7 +4517,7 @@
     </row>
     <row r="35" spans="8:16">
       <c r="P35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4490,7 +4534,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4527,89 +4571,89 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" customHeight="1">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1">
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1">
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" customHeight="1">
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1">
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1">
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" customHeight="1">
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" customHeight="1">
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" customHeight="1">
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" customHeight="1">
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" customHeight="1">
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="18.75" customHeight="1">
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/pier/piers.xlsx
+++ b/pier/piers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\simutrans-pak128.japan-ex-addons\pier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAF8662-B6A2-4560-B420-C65875CEA99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB3C2D6-4320-42C4-B9E2-7BBA6FE7547E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7995" yWindow="10380" windowWidth="45765" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -1750,10 +1750,10 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1936,7 +1936,7 @@
         <v>73</v>
       </c>
       <c r="F4" s="1">
-        <v>1990</v>
+        <v>1900</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -2017,7 +2017,7 @@
         <v>73</v>
       </c>
       <c r="F5" s="1">
-        <v>1990</v>
+        <v>1900</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -2098,7 +2098,7 @@
         <v>73</v>
       </c>
       <c r="F6" s="1">
-        <v>1990</v>
+        <v>1900</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -2179,7 +2179,7 @@
         <v>73</v>
       </c>
       <c r="F7" s="1">
-        <v>1990</v>
+        <v>1900</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -2260,7 +2260,7 @@
         <v>73</v>
       </c>
       <c r="F8" s="1">
-        <v>1990</v>
+        <v>1900</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -2341,7 +2341,7 @@
         <v>73</v>
       </c>
       <c r="F9" s="1">
-        <v>1990</v>
+        <v>1900</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -2422,7 +2422,7 @@
         <v>73</v>
       </c>
       <c r="F10" s="1">
-        <v>1990</v>
+        <v>1900</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -2503,7 +2503,7 @@
         <v>73</v>
       </c>
       <c r="F11" s="1">
-        <v>1990</v>
+        <v>1900</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -2584,7 +2584,7 @@
         <v>73</v>
       </c>
       <c r="F12" s="1">
-        <v>1990</v>
+        <v>1900</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
